--- a/tests/testthat/fixtures/ex3/tables/dif_poly_mig.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/dif_poly_mig.xlsx
@@ -526,16 +526,16 @@
         <v>2100</v>
       </c>
       <c r="D2" t="n">
-        <v>24219</v>
+        <v>24393</v>
       </c>
       <c r="E2" t="n">
         <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>24285</v>
+        <v>24459</v>
       </c>
       <c r="G2" t="n">
-        <v>24472</v>
+        <v>24645</v>
       </c>
     </row>
     <row r="3">
@@ -549,16 +549,16 @@
         <v>2100</v>
       </c>
       <c r="D3" t="n">
-        <v>24157</v>
+        <v>24323</v>
       </c>
       <c r="E3" t="n">
         <v>73</v>
       </c>
       <c r="F3" t="n">
-        <v>24303</v>
+        <v>24469</v>
       </c>
       <c r="G3" t="n">
-        <v>24715</v>
+        <v>24882</v>
       </c>
     </row>
   </sheetData>
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>861</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3">
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>813</v>
+        <v>829</v>
       </c>
     </row>
     <row r="4">
@@ -604,7 +604,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -674,16 +674,16 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.028</v>
+        <v>-0.054</v>
       </c>
       <c r="C2" t="n">
         <v>0.099</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.024</v>
+        <v>-0.046</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08</v>
+        <v>0.298</v>
       </c>
       <c r="F2" t="n">
         <v>117.283</v>
@@ -703,16 +703,16 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>0.188</v>
+        <v>0.229</v>
       </c>
       <c r="C3" t="n">
         <v>0.069</v>
       </c>
       <c r="D3" t="n">
-        <v>0.161</v>
+        <v>0.194</v>
       </c>
       <c r="E3" t="n">
-        <v>7.424</v>
+        <v>11.015</v>
       </c>
       <c r="F3" t="n">
         <v>117.283</v>
@@ -732,16 +732,16 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>0.076</v>
+        <v>0.086</v>
       </c>
       <c r="C4" t="n">
-        <v>0.085</v>
+        <v>0.086</v>
       </c>
       <c r="D4" t="n">
-        <v>0.065</v>
+        <v>0.073</v>
       </c>
       <c r="E4" t="n">
-        <v>0.799</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>117.283</v>
@@ -761,16 +761,16 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.295</v>
+        <v>0.265</v>
       </c>
       <c r="C5" t="n">
         <v>0.052</v>
       </c>
       <c r="D5" t="n">
-        <v>0.252</v>
+        <v>0.224</v>
       </c>
       <c r="E5" t="n">
-        <v>32.184</v>
+        <v>25.971</v>
       </c>
       <c r="F5" t="n">
         <v>117.283</v>
@@ -790,16 +790,16 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.175</v>
+        <v>-0.027</v>
       </c>
       <c r="C6" t="n">
         <v>0.113</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.15</v>
+        <v>-0.023</v>
       </c>
       <c r="E6" t="n">
-        <v>2.398</v>
+        <v>0.057</v>
       </c>
       <c r="F6" t="n">
         <v>117.283</v>
@@ -819,16 +819,16 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>0.236</v>
+        <v>0.108</v>
       </c>
       <c r="C7" t="n">
         <v>0.132</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202</v>
+        <v>0.091</v>
       </c>
       <c r="E7" t="n">
-        <v>3.197</v>
+        <v>0.669</v>
       </c>
       <c r="F7" t="n">
         <v>117.283</v>
@@ -848,16 +848,16 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.253</v>
+        <v>-0.284</v>
       </c>
       <c r="C8" t="n">
-        <v>0.129</v>
+        <v>0.13</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.216</v>
+        <v>-0.24</v>
       </c>
       <c r="E8" t="n">
-        <v>3.846</v>
+        <v>4.773</v>
       </c>
       <c r="F8" t="n">
         <v>117.283</v>
@@ -877,16 +877,16 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.061</v>
+        <v>-0.081</v>
       </c>
       <c r="C9" t="n">
-        <v>0.126</v>
+        <v>0.127</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.052</v>
+        <v>-0.069</v>
       </c>
       <c r="E9" t="n">
-        <v>0.234</v>
+        <v>0.407</v>
       </c>
       <c r="F9" t="n">
         <v>117.283</v>
@@ -906,16 +906,16 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
+        <v>-0.058</v>
+      </c>
+      <c r="C10" t="n">
         <v>0.126</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.125</v>
-      </c>
       <c r="D10" t="n">
-        <v>0.108</v>
+        <v>-0.049</v>
       </c>
       <c r="E10" t="n">
-        <v>1.016</v>
+        <v>0.212</v>
       </c>
       <c r="F10" t="n">
         <v>117.283</v>
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B11" t="n">
-        <v>0.062</v>
+        <v>0.151</v>
       </c>
       <c r="C11" t="n">
-        <v>0.088</v>
+        <v>0.087</v>
       </c>
       <c r="D11" t="n">
-        <v>0.053</v>
+        <v>0.128</v>
       </c>
       <c r="E11" t="n">
-        <v>0.496</v>
+        <v>3.012</v>
       </c>
       <c r="F11" t="n">
         <v>117.283</v>
@@ -964,16 +964,16 @@
         <v>32</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.015</v>
+        <v>-0.01</v>
       </c>
       <c r="C12" t="n">
-        <v>0.123</v>
+        <v>0.126</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.013</v>
+        <v>-0.008</v>
       </c>
       <c r="E12" t="n">
-        <v>0.015</v>
+        <v>0.006</v>
       </c>
       <c r="F12" t="n">
         <v>117.283</v>
@@ -993,16 +993,16 @@
         <v>33</v>
       </c>
       <c r="B13" t="n">
-        <v>0.067</v>
+        <v>-0.056</v>
       </c>
       <c r="C13" t="n">
-        <v>0.123</v>
+        <v>0.126</v>
       </c>
       <c r="D13" t="n">
-        <v>0.057</v>
+        <v>-0.047</v>
       </c>
       <c r="E13" t="n">
-        <v>0.297</v>
+        <v>0.198</v>
       </c>
       <c r="F13" t="n">
         <v>117.283</v>
@@ -1022,16 +1022,16 @@
         <v>34</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.354</v>
+        <v>-0.225</v>
       </c>
       <c r="C14" t="n">
-        <v>0.124</v>
+        <v>0.126</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.303</v>
+        <v>-0.191</v>
       </c>
       <c r="E14" t="n">
-        <v>8.15</v>
+        <v>3.189</v>
       </c>
       <c r="F14" t="n">
         <v>117.283</v>
@@ -1051,16 +1051,16 @@
         <v>35</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.043</v>
+        <v>0.231</v>
       </c>
       <c r="C15" t="n">
-        <v>0.127</v>
+        <v>0.129</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.037</v>
+        <v>0.196</v>
       </c>
       <c r="E15" t="n">
-        <v>0.115</v>
+        <v>3.207</v>
       </c>
       <c r="F15" t="n">
         <v>117.283</v>
@@ -1080,16 +1080,16 @@
         <v>36</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.376</v>
+        <v>-0.19</v>
       </c>
       <c r="C16" t="n">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.322</v>
+        <v>-0.161</v>
       </c>
       <c r="E16" t="n">
-        <v>7.873</v>
+        <v>1.981</v>
       </c>
       <c r="F16" t="n">
         <v>117.283</v>
@@ -1109,16 +1109,16 @@
         <v>37</v>
       </c>
       <c r="B17" t="n">
-        <v>0.476</v>
+        <v>0.397</v>
       </c>
       <c r="C17" t="n">
-        <v>0.088</v>
+        <v>0.086</v>
       </c>
       <c r="D17" t="n">
-        <v>0.407</v>
+        <v>0.336</v>
       </c>
       <c r="E17" t="n">
-        <v>29.258</v>
+        <v>21.31</v>
       </c>
       <c r="F17" t="n">
         <v>117.283</v>
@@ -1138,16 +1138,16 @@
         <v>38</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.338</v>
+        <v>-0.351</v>
       </c>
       <c r="C18" t="n">
-        <v>0.123</v>
+        <v>0.126</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.289</v>
+        <v>-0.297</v>
       </c>
       <c r="E18" t="n">
-        <v>7.551</v>
+        <v>7.76</v>
       </c>
       <c r="F18" t="n">
         <v>117.283</v>
@@ -1167,16 +1167,16 @@
         <v>39</v>
       </c>
       <c r="B19" t="n">
-        <v>0.288</v>
+        <v>0.158</v>
       </c>
       <c r="C19" t="n">
-        <v>0.122</v>
+        <v>0.125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.246</v>
+        <v>0.134</v>
       </c>
       <c r="E19" t="n">
-        <v>5.573</v>
+        <v>1.598</v>
       </c>
       <c r="F19" t="n">
         <v>117.283</v>
@@ -1199,13 +1199,13 @@
         <v>0.236</v>
       </c>
       <c r="C20" t="n">
-        <v>0.078</v>
+        <v>0.079</v>
       </c>
       <c r="D20" t="n">
-        <v>0.202</v>
+        <v>0.2</v>
       </c>
       <c r="E20" t="n">
-        <v>9.155</v>
+        <v>8.924</v>
       </c>
       <c r="F20" t="n">
         <v>117.283</v>
@@ -1225,16 +1225,16 @@
         <v>41</v>
       </c>
       <c r="B21" t="n">
-        <v>0.045</v>
+        <v>-0.026</v>
       </c>
       <c r="C21" t="n">
-        <v>0.128</v>
+        <v>0.131</v>
       </c>
       <c r="D21" t="n">
-        <v>0.038</v>
+        <v>-0.022</v>
       </c>
       <c r="E21" t="n">
-        <v>0.124</v>
+        <v>0.039</v>
       </c>
       <c r="F21" t="n">
         <v>117.283</v>
@@ -1254,16 +1254,16 @@
         <v>42</v>
       </c>
       <c r="B22" t="n">
-        <v>0.453</v>
+        <v>0.501</v>
       </c>
       <c r="C22" t="n">
-        <v>0.501</v>
+        <v>0.506</v>
       </c>
       <c r="D22" t="n">
-        <v>0.387</v>
+        <v>0.424</v>
       </c>
       <c r="E22" t="n">
-        <v>0.818</v>
+        <v>0.98</v>
       </c>
       <c r="F22" t="n">
         <v>117.283</v>
@@ -1326,16 +1326,16 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>0.202</v>
+        <v>0.007</v>
       </c>
       <c r="C2" t="n">
-        <v>0.099</v>
+        <v>0.101</v>
       </c>
       <c r="D2" t="n">
-        <v>0.173</v>
+        <v>0.006</v>
       </c>
       <c r="E2" t="n">
-        <v>4.163</v>
+        <v>0.005</v>
       </c>
       <c r="F2" t="n">
         <v>117.283</v>
@@ -1355,16 +1355,16 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.004</v>
+        <v>0.028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.072</v>
+        <v>0.071</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.003</v>
+        <v>0.024</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003</v>
+        <v>0.156</v>
       </c>
       <c r="F3" t="n">
         <v>117.283</v>
@@ -1384,16 +1384,16 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.121</v>
+        <v>0.144</v>
       </c>
       <c r="C4" t="n">
-        <v>0.083</v>
+        <v>0.084</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.103</v>
+        <v>0.122</v>
       </c>
       <c r="E4" t="n">
-        <v>2.125</v>
+        <v>2.939</v>
       </c>
       <c r="F4" t="n">
         <v>117.283</v>
@@ -1413,16 +1413,16 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.071</v>
+        <v>0.164</v>
       </c>
       <c r="C5" t="n">
-        <v>0.051</v>
+        <v>0.052</v>
       </c>
       <c r="D5" t="n">
-        <v>0.061</v>
+        <v>0.139</v>
       </c>
       <c r="E5" t="n">
-        <v>1.938</v>
+        <v>9.947</v>
       </c>
       <c r="F5" t="n">
         <v>117.283</v>
@@ -1442,16 +1442,16 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>0.089</v>
+        <v>-0.211</v>
       </c>
       <c r="C6" t="n">
-        <v>0.104</v>
+        <v>0.105</v>
       </c>
       <c r="D6" t="n">
-        <v>0.076</v>
+        <v>-0.179</v>
       </c>
       <c r="E6" t="n">
-        <v>0.732</v>
+        <v>4.038</v>
       </c>
       <c r="F6" t="n">
         <v>117.283</v>
@@ -1471,16 +1471,16 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>0.554</v>
+        <v>-0.273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.127</v>
+        <v>0.129</v>
       </c>
       <c r="D7" t="n">
-        <v>0.474</v>
+        <v>-0.231</v>
       </c>
       <c r="E7" t="n">
-        <v>19.029</v>
+        <v>4.479</v>
       </c>
       <c r="F7" t="n">
         <v>117.283</v>
@@ -1500,16 +1500,16 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.303</v>
+        <v>-0.352</v>
       </c>
       <c r="C8" t="n">
-        <v>0.126</v>
+        <v>0.128</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.259</v>
+        <v>-0.298</v>
       </c>
       <c r="E8" t="n">
-        <v>5.783</v>
+        <v>7.562</v>
       </c>
       <c r="F8" t="n">
         <v>117.283</v>
@@ -1529,16 +1529,16 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.315</v>
+        <v>0.453</v>
       </c>
       <c r="C9" t="n">
-        <v>0.122</v>
+        <v>0.124</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.269</v>
+        <v>0.384</v>
       </c>
       <c r="E9" t="n">
-        <v>6.667</v>
+        <v>13.346</v>
       </c>
       <c r="F9" t="n">
         <v>117.283</v>
@@ -1558,16 +1558,16 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.072</v>
+        <v>-0.101</v>
       </c>
       <c r="C10" t="n">
-        <v>0.12</v>
+        <v>0.122</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.062</v>
+        <v>-0.086</v>
       </c>
       <c r="E10" t="n">
-        <v>0.36</v>
+        <v>0.685</v>
       </c>
       <c r="F10" t="n">
         <v>117.283</v>
@@ -1587,16 +1587,16 @@
         <v>31</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.244</v>
+        <v>-0.003</v>
       </c>
       <c r="C11" t="n">
-        <v>0.093</v>
+        <v>0.092</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.209</v>
+        <v>-0.003</v>
       </c>
       <c r="E11" t="n">
-        <v>6.884</v>
+        <v>0.001</v>
       </c>
       <c r="F11" t="n">
         <v>117.283</v>
@@ -1616,16 +1616,16 @@
         <v>32</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.284</v>
+        <v>0.592</v>
       </c>
       <c r="C12" t="n">
-        <v>0.118</v>
+        <v>0.122</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.243</v>
+        <v>0.501</v>
       </c>
       <c r="E12" t="n">
-        <v>5.793</v>
+        <v>23.546</v>
       </c>
       <c r="F12" t="n">
         <v>117.283</v>
@@ -1645,16 +1645,16 @@
         <v>33</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.104</v>
+        <v>0.317</v>
       </c>
       <c r="C13" t="n">
-        <v>0.117</v>
+        <v>0.12</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.089</v>
+        <v>0.268</v>
       </c>
       <c r="E13" t="n">
-        <v>0.79</v>
+        <v>6.978</v>
       </c>
       <c r="F13" t="n">
         <v>117.283</v>
@@ -1674,16 +1674,16 @@
         <v>34</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.184</v>
+        <v>-0.475</v>
       </c>
       <c r="C14" t="n">
-        <v>0.118</v>
+        <v>0.121</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.157</v>
+        <v>-0.402</v>
       </c>
       <c r="E14" t="n">
-        <v>2.431</v>
+        <v>15.41</v>
       </c>
       <c r="F14" t="n">
         <v>117.283</v>
@@ -1703,16 +1703,16 @@
         <v>35</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.051</v>
+        <v>0.569</v>
       </c>
       <c r="C15" t="n">
-        <v>0.12</v>
+        <v>0.123</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.044</v>
+        <v>0.482</v>
       </c>
       <c r="E15" t="n">
-        <v>0.181</v>
+        <v>21.4</v>
       </c>
       <c r="F15" t="n">
         <v>117.283</v>
@@ -1732,16 +1732,16 @@
         <v>36</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.067</v>
+        <v>0.139</v>
       </c>
       <c r="C16" t="n">
-        <v>0.124</v>
+        <v>0.127</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.057</v>
+        <v>0.118</v>
       </c>
       <c r="E16" t="n">
-        <v>0.292</v>
+        <v>1.198</v>
       </c>
       <c r="F16" t="n">
         <v>117.283</v>
@@ -1761,16 +1761,16 @@
         <v>37</v>
       </c>
       <c r="B17" t="n">
-        <v>0.248</v>
+        <v>0.45</v>
       </c>
       <c r="C17" t="n">
-        <v>0.086</v>
+        <v>0.084</v>
       </c>
       <c r="D17" t="n">
-        <v>0.212</v>
+        <v>0.381</v>
       </c>
       <c r="E17" t="n">
-        <v>8.316</v>
+        <v>28.699</v>
       </c>
       <c r="F17" t="n">
         <v>117.283</v>
@@ -1790,16 +1790,16 @@
         <v>38</v>
       </c>
       <c r="B18" t="n">
-        <v>0.063</v>
+        <v>-0.698</v>
       </c>
       <c r="C18" t="n">
-        <v>0.114</v>
+        <v>0.118</v>
       </c>
       <c r="D18" t="n">
-        <v>0.054</v>
+        <v>-0.591</v>
       </c>
       <c r="E18" t="n">
-        <v>0.305</v>
+        <v>34.99</v>
       </c>
       <c r="F18" t="n">
         <v>117.283</v>
@@ -1811,7 +1811,7 @@
         <v>2098</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="19">
@@ -1819,16 +1819,16 @@
         <v>39</v>
       </c>
       <c r="B19" t="n">
-        <v>0.595</v>
+        <v>0.194</v>
       </c>
       <c r="C19" t="n">
-        <v>0.114</v>
+        <v>0.118</v>
       </c>
       <c r="D19" t="n">
-        <v>0.509</v>
+        <v>0.164</v>
       </c>
       <c r="E19" t="n">
-        <v>27.241</v>
+        <v>2.703</v>
       </c>
       <c r="F19" t="n">
         <v>117.283</v>
@@ -1848,16 +1848,16 @@
         <v>40</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.059</v>
+        <v>-0.064</v>
       </c>
       <c r="C20" t="n">
-        <v>0.076</v>
+        <v>0.078</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.05</v>
+        <v>-0.054</v>
       </c>
       <c r="E20" t="n">
-        <v>0.603</v>
+        <v>0.673</v>
       </c>
       <c r="F20" t="n">
         <v>117.283</v>
@@ -1877,16 +1877,16 @@
         <v>41</v>
       </c>
       <c r="B21" t="n">
-        <v>0.093</v>
+        <v>-0.158</v>
       </c>
       <c r="C21" t="n">
-        <v>0.118</v>
+        <v>0.122</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08</v>
+        <v>-0.134</v>
       </c>
       <c r="E21" t="n">
-        <v>0.621</v>
+        <v>1.677</v>
       </c>
       <c r="F21" t="n">
         <v>117.283</v>
@@ -1906,16 +1906,16 @@
         <v>42</v>
       </c>
       <c r="B22" t="n">
-        <v>0.106</v>
+        <v>0.724</v>
       </c>
       <c r="C22" t="n">
-        <v>0.479</v>
+        <v>0.489</v>
       </c>
       <c r="D22" t="n">
-        <v>0.091</v>
+        <v>0.613</v>
       </c>
       <c r="E22" t="n">
-        <v>0.049</v>
+        <v>2.192</v>
       </c>
       <c r="F22" t="n">
         <v>117.283</v>
@@ -1978,16 +1978,16 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>0.231</v>
+        <v>0.061</v>
       </c>
       <c r="C2" t="n">
         <v>0.098</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198</v>
+        <v>0.052</v>
       </c>
       <c r="E2" t="n">
-        <v>5.556</v>
+        <v>0.387</v>
       </c>
       <c r="F2" t="n">
         <v>117.283</v>
@@ -2007,16 +2007,16 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.192</v>
+        <v>-0.201</v>
       </c>
       <c r="C3" t="n">
         <v>0.066</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.164</v>
+        <v>-0.17</v>
       </c>
       <c r="E3" t="n">
-        <v>8.463</v>
+        <v>9.275</v>
       </c>
       <c r="F3" t="n">
         <v>117.283</v>
@@ -2036,16 +2036,16 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.198</v>
+        <v>0.058</v>
       </c>
       <c r="C4" t="n">
-        <v>0.087</v>
+        <v>0.088</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.169</v>
+        <v>0.049</v>
       </c>
       <c r="E4" t="n">
-        <v>5.18</v>
+        <v>0.434</v>
       </c>
       <c r="F4" t="n">
         <v>117.283</v>
@@ -2065,16 +2065,16 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.224</v>
+        <v>-0.101</v>
       </c>
       <c r="C5" t="n">
         <v>0.053</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.192</v>
+        <v>-0.086</v>
       </c>
       <c r="E5" t="n">
-        <v>17.863</v>
+        <v>3.632</v>
       </c>
       <c r="F5" t="n">
         <v>117.283</v>
@@ -2094,16 +2094,16 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>0.264</v>
+        <v>-0.184</v>
       </c>
       <c r="C6" t="n">
-        <v>0.123</v>
+        <v>0.121</v>
       </c>
       <c r="D6" t="n">
-        <v>0.226</v>
+        <v>-0.156</v>
       </c>
       <c r="E6" t="n">
-        <v>4.607</v>
+        <v>2.312</v>
       </c>
       <c r="F6" t="n">
         <v>117.283</v>
@@ -2123,16 +2123,16 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>0.318</v>
+        <v>-0.38</v>
       </c>
       <c r="C7" t="n">
-        <v>0.137</v>
+        <v>0.135</v>
       </c>
       <c r="D7" t="n">
-        <v>0.272</v>
+        <v>-0.322</v>
       </c>
       <c r="E7" t="n">
-        <v>5.388</v>
+        <v>7.923</v>
       </c>
       <c r="F7" t="n">
         <v>117.283</v>
@@ -2152,16 +2152,16 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.05</v>
+        <v>-0.067</v>
       </c>
       <c r="C8" t="n">
         <v>0.132</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.043</v>
+        <v>-0.057</v>
       </c>
       <c r="E8" t="n">
-        <v>0.143</v>
+        <v>0.258</v>
       </c>
       <c r="F8" t="n">
         <v>117.283</v>
@@ -2181,16 +2181,16 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.253</v>
+        <v>0.534</v>
       </c>
       <c r="C9" t="n">
         <v>0.13</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.216</v>
+        <v>0.452</v>
       </c>
       <c r="E9" t="n">
-        <v>3.788</v>
+        <v>16.873</v>
       </c>
       <c r="F9" t="n">
         <v>117.283</v>
@@ -2210,16 +2210,16 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.198</v>
+        <v>-0.042</v>
       </c>
       <c r="C10" t="n">
         <v>0.129</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.169</v>
+        <v>-0.036</v>
       </c>
       <c r="E10" t="n">
-        <v>2.356</v>
+        <v>0.106</v>
       </c>
       <c r="F10" t="n">
         <v>117.283</v>
@@ -2239,16 +2239,16 @@
         <v>31</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.307</v>
+        <v>-0.154</v>
       </c>
       <c r="C11" t="n">
         <v>0.083</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.263</v>
+        <v>-0.13</v>
       </c>
       <c r="E11" t="n">
-        <v>13.681</v>
+        <v>3.443</v>
       </c>
       <c r="F11" t="n">
         <v>117.283</v>
@@ -2268,16 +2268,16 @@
         <v>32</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.269</v>
+        <v>0.602</v>
       </c>
       <c r="C12" t="n">
-        <v>0.127</v>
+        <v>0.131</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.23</v>
+        <v>0.51</v>
       </c>
       <c r="E12" t="n">
-        <v>4.486</v>
+        <v>21.118</v>
       </c>
       <c r="F12" t="n">
         <v>117.283</v>
@@ -2297,16 +2297,16 @@
         <v>33</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.171</v>
+        <v>0.373</v>
       </c>
       <c r="C13" t="n">
-        <v>0.129</v>
+        <v>0.131</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.146</v>
+        <v>0.316</v>
       </c>
       <c r="E13" t="n">
-        <v>1.757</v>
+        <v>8.107</v>
       </c>
       <c r="F13" t="n">
         <v>117.283</v>
@@ -2326,16 +2326,16 @@
         <v>34</v>
       </c>
       <c r="B14" t="n">
-        <v>0.17</v>
+        <v>-0.25</v>
       </c>
       <c r="C14" t="n">
-        <v>0.13</v>
+        <v>0.131</v>
       </c>
       <c r="D14" t="n">
-        <v>0.145</v>
+        <v>-0.212</v>
       </c>
       <c r="E14" t="n">
-        <v>1.71</v>
+        <v>3.642</v>
       </c>
       <c r="F14" t="n">
         <v>117.283</v>
@@ -2355,16 +2355,16 @@
         <v>35</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.008</v>
+        <v>0.339</v>
       </c>
       <c r="C15" t="n">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.007</v>
+        <v>0.287</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004</v>
+        <v>6.306</v>
       </c>
       <c r="F15" t="n">
         <v>117.283</v>
@@ -2384,16 +2384,16 @@
         <v>36</v>
       </c>
       <c r="B16" t="n">
-        <v>0.309</v>
+        <v>0.329</v>
       </c>
       <c r="C16" t="n">
-        <v>0.144</v>
+        <v>0.143</v>
       </c>
       <c r="D16" t="n">
-        <v>0.264</v>
+        <v>0.279</v>
       </c>
       <c r="E16" t="n">
-        <v>4.605</v>
+        <v>5.293</v>
       </c>
       <c r="F16" t="n">
         <v>117.283</v>
@@ -2413,16 +2413,16 @@
         <v>37</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.228</v>
+        <v>0.052</v>
       </c>
       <c r="C17" t="n">
-        <v>0.091</v>
+        <v>0.088</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.195</v>
+        <v>0.044</v>
       </c>
       <c r="E17" t="n">
-        <v>6.278</v>
+        <v>0.349</v>
       </c>
       <c r="F17" t="n">
         <v>117.283</v>
@@ -2442,16 +2442,16 @@
         <v>38</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4</v>
+        <v>-0.347</v>
       </c>
       <c r="C18" t="n">
-        <v>0.132</v>
+        <v>0.133</v>
       </c>
       <c r="D18" t="n">
-        <v>0.342</v>
+        <v>-0.294</v>
       </c>
       <c r="E18" t="n">
-        <v>9.183</v>
+        <v>6.807</v>
       </c>
       <c r="F18" t="n">
         <v>117.283</v>
@@ -2471,16 +2471,16 @@
         <v>39</v>
       </c>
       <c r="B19" t="n">
-        <v>0.307</v>
+        <v>0.036</v>
       </c>
       <c r="C19" t="n">
-        <v>0.13</v>
+        <v>0.131</v>
       </c>
       <c r="D19" t="n">
-        <v>0.263</v>
+        <v>0.03</v>
       </c>
       <c r="E19" t="n">
-        <v>5.577</v>
+        <v>0.076</v>
       </c>
       <c r="F19" t="n">
         <v>117.283</v>
@@ -2500,16 +2500,16 @@
         <v>40</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.295</v>
+        <v>-0.301</v>
       </c>
       <c r="C20" t="n">
-        <v>0.081</v>
+        <v>0.08</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.252</v>
+        <v>-0.255</v>
       </c>
       <c r="E20" t="n">
-        <v>13.264</v>
+        <v>14.156</v>
       </c>
       <c r="F20" t="n">
         <v>117.283</v>
@@ -2529,16 +2529,16 @@
         <v>41</v>
       </c>
       <c r="B21" t="n">
-        <v>0.048</v>
+        <v>-0.133</v>
       </c>
       <c r="C21" t="n">
-        <v>0.138</v>
+        <v>0.14</v>
       </c>
       <c r="D21" t="n">
-        <v>0.041</v>
+        <v>-0.113</v>
       </c>
       <c r="E21" t="n">
-        <v>0.121</v>
+        <v>0.902</v>
       </c>
       <c r="F21" t="n">
         <v>117.283</v>
@@ -2558,16 +2558,16 @@
         <v>42</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.347</v>
+        <v>0.223</v>
       </c>
       <c r="C22" t="n">
-        <v>0.522</v>
+        <v>0.523</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.297</v>
+        <v>0.189</v>
       </c>
       <c r="E22" t="n">
-        <v>0.442</v>
+        <v>0.182</v>
       </c>
       <c r="F22" t="n">
         <v>117.283</v>
@@ -2612,10 +2612,10 @@
         <v>45</v>
       </c>
       <c r="B2" t="n">
-        <v>0.726</v>
+        <v>0.688</v>
       </c>
       <c r="C2" t="n">
-        <v>0.621</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="3">
@@ -2623,10 +2623,10 @@
         <v>46</v>
       </c>
       <c r="B3" t="n">
-        <v>0.526</v>
+        <v>0.49</v>
       </c>
       <c r="C3" t="n">
-        <v>0.45</v>
+        <v>0.415</v>
       </c>
     </row>
   </sheetData>
@@ -2659,10 +2659,10 @@
         <v>45</v>
       </c>
       <c r="B2" t="n">
-        <v>0.179</v>
+        <v>0.295</v>
       </c>
       <c r="C2" t="n">
-        <v>0.153</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -2670,10 +2670,10 @@
         <v>46</v>
       </c>
       <c r="B3" t="n">
-        <v>0.164</v>
+        <v>0.214</v>
       </c>
       <c r="C3" t="n">
-        <v>0.14</v>
+        <v>0.181</v>
       </c>
     </row>
   </sheetData>
@@ -2706,10 +2706,10 @@
         <v>45</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.547</v>
+        <v>-0.392</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.468</v>
+        <v>-0.332</v>
       </c>
     </row>
     <row r="3">
@@ -2717,10 +2717,10 @@
         <v>46</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.362</v>
+        <v>-0.276</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.31</v>
+        <v>-0.234</v>
       </c>
     </row>
   </sheetData>
